--- a/public/all-profiles.xlsx
+++ b/public/all-profiles.xlsx
@@ -1003,7 +1003,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2023-08-09T02:35:23-05:00</t>
+    <t>2023-08-09T03:19:35-05:00</t>
   </si>
   <si>
     <t>Jurisdiction</t>
